--- a/biology/Médecine/Groupes_d'étude_multicentrique_des_services_d'accueil/Groupes_d'étude_multicentrique_des_services_d'accueil.xlsx
+++ b/biology/Médecine/Groupes_d'étude_multicentrique_des_services_d'accueil/Groupes_d'étude_multicentrique_des_services_d'accueil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupes_d%27%C3%A9tude_multicentrique_des_services_d%27accueil</t>
+          <t>Groupes_d'étude_multicentrique_des_services_d'accueil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification GEMSA (Groupes d’étude multicentrique des services d’accueil)[1],[2] classe les patients en 6 groupes selon leurs modes d’admission et de sortie. Chaque classe regroupe des patients pour lesquels la charge en soins médicaux et paramédicaux, et le volume des examens complémentaires sont globalement équivalents. La charge de travail pour le personnel médical et infirmier est plus lourde pour le groupe 4 et 6.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification GEMSA (Groupes d’étude multicentrique des services d’accueil), classe les patients en 6 groupes selon leurs modes d’admission et de sortie. Chaque classe regroupe des patients pour lesquels la charge en soins médicaux et paramédicaux, et le volume des examens complémentaires sont globalement équivalents. La charge de travail pour le personnel médical et infirmier est plus lourde pour le groupe 4 et 6.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupes_d%27%C3%A9tude_multicentrique_des_services_d%27accueil</t>
+          <t>Groupes_d'étude_multicentrique_des_services_d'accueil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette classification pourrait servir à prédire la consommation en ressources d'un service d'urgences. En effet, les auteurs ont trouvé que les patients appartenant à la classe 6 étaient sources de consommation importante de ressources, alors qu'à l'opposé la classe 5 pourrait correspondre à un besoin moindre d'allocation budgétaire. Une analyse plus fine de l'activité est nécessaire pour mieux interpréter les dépenses du service[3]. 
-Cette classification est réalisée rétrospectivement et prend en compte le mode d'arrivée des patients et le mode se sortie des SAU (Service d'Accueil des Urgences). Elle n'est donc pas utilisable en termes d'évaluation prospective de la gravité à l'arrivée des patients. Par contre son utilisation rétrospective permet, là encore, la comparaison de différents services d'urgences entre eux. La classification GEMSA est donc essentiellement utilisable comme un indicateur qualitatif d'activité du service[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classification pourrait servir à prédire la consommation en ressources d'un service d'urgences. En effet, les auteurs ont trouvé que les patients appartenant à la classe 6 étaient sources de consommation importante de ressources, alors qu'à l'opposé la classe 5 pourrait correspondre à un besoin moindre d'allocation budgétaire. Une analyse plus fine de l'activité est nécessaire pour mieux interpréter les dépenses du service. 
+Cette classification est réalisée rétrospectivement et prend en compte le mode d'arrivée des patients et le mode se sortie des SAU (Service d'Accueil des Urgences). Elle n'est donc pas utilisable en termes d'évaluation prospective de la gravité à l'arrivée des patients. Par contre son utilisation rétrospective permet, là encore, la comparaison de différents services d'urgences entre eux. La classification GEMSA est donc essentiellement utilisable comme un indicateur qualitatif d'activité du service.
 </t>
         </is>
       </c>
